--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R4a15c41aff2147da"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R66463448e9ad4f61"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R66463448e9ad4f61"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R5ccc5efec7f2454d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R5ccc5efec7f2454d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R10b757aefb304927"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R10b757aefb304927"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R80079d81cdd44a28"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R80079d81cdd44a28"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc341e8de6a9d4359"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc341e8de6a9d4359"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rea1ae34dbdd24b43"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rea1ae34dbdd24b43"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc9343ab02f1f488b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc9343ab02f1f488b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R444d12ad245c49c5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R444d12ad245c49c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R39a988a68793427c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R39a988a68793427c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R881270aea66a4fbd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R881270aea66a4fbd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R5afd694846734e90"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R5afd694846734e90"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Re149834a482d431d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/023_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Re149834a482d431d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R03fbeceab9484169"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
